--- a/public/reportes/informe.xlsx
+++ b/public/reportes/informe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\SICSA_BACK\storage\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\SICSA_BACK\public\reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775FC5CC-5C06-4975-9A16-6B5B3962F2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2799B40-ABFC-4B78-90C8-67540E3437A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{A601815A-323C-4A12-A9A8-53CFC86E272D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A601815A-323C-4A12-A9A8-53CFC86E272D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Número de Auditoría</t>
   </si>
@@ -43,13 +43,31 @@
   </si>
   <si>
     <t>Número de Acta:</t>
+  </si>
+  <si>
+    <t>SE SOLICTA INFORMACIÓN PRELIINAR A LAS DIRECCIONES D ELA SFYTGE:</t>
+  </si>
+  <si>
+    <t>ÁREA NOTIFICADA</t>
+  </si>
+  <si>
+    <t>No. DE OFICIO</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>SOLICITUD</t>
+  </si>
+  <si>
+    <t>FECHA RECIBIDO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,8 +83,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,11 +105,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -92,9 +157,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,48 +489,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BC8C6F-3BF8-4E85-A371-5087246EC9DA}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/reportes/informe.xlsx
+++ b/public/reportes/informe.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\SICSA_BACK\public\reportes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leluc\Documents\Proyectos\SICSA\Back\SICSA_BACK\public\reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2799B40-ABFC-4B78-90C8-67540E3437A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A601815A-323C-4A12-A9A8-53CFC86E272D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,9 +44,6 @@
     <t>Número de Acta:</t>
   </si>
   <si>
-    <t>SE SOLICTA INFORMACIÓN PRELIINAR A LAS DIRECCIONES D ELA SFYTGE:</t>
-  </si>
-  <si>
     <t>ÁREA NOTIFICADA</t>
   </si>
   <si>
@@ -61,12 +57,15 @@
   </si>
   <si>
     <t>FECHA RECIBIDO</t>
+  </si>
+  <si>
+    <t>SE SOLICITA INFORMACIÓN PRELIMINAR A LAS DIRECCIONES DE LA SFYTGE:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,56 +487,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BC8C6F-3BF8-4E85-A371-5087246EC9DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -545,24 +544,24 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/reportes/informe.xlsx
+++ b/public/reportes/informe.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>Número de Auditoría</t>
-  </si>
-  <si>
-    <t>Año de Auditoría</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Nombre:</t>
   </si>
@@ -38,9 +32,6 @@
     <t>Gasto Federalizado:</t>
   </si>
   <si>
-    <t>Tipo de Auditoría</t>
-  </si>
-  <si>
     <t>Número de Acta:</t>
   </si>
   <si>
@@ -60,6 +51,75 @@
   </si>
   <si>
     <t>SE SOLICITA INFORMACIÓN PRELIMINAR A LAS DIRECCIONES DE LA SFYTGE:</t>
+  </si>
+  <si>
+    <t>Número de Auditoría:</t>
+  </si>
+  <si>
+    <t>Año de Auditoría:</t>
+  </si>
+  <si>
+    <t>OFICIO</t>
+  </si>
+  <si>
+    <t>FECHA VENCIMIENTO</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN DE OFICIOS:</t>
+  </si>
+  <si>
+    <t>SECRETARÍA</t>
+  </si>
+  <si>
+    <t>UNIDAD ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>FECHA OFICIO</t>
+  </si>
+  <si>
+    <t>ÓRGANO</t>
+  </si>
+  <si>
+    <t>FOLIO SIGA</t>
+  </si>
+  <si>
+    <t>FECHA VENCIMENTO</t>
+  </si>
+  <si>
+    <t>NOTIFICACIONES:</t>
+  </si>
+  <si>
+    <t>CONTESTACIÓN ÓRGANO:</t>
+  </si>
+  <si>
+    <t>PRÓRROGA</t>
+  </si>
+  <si>
+    <t>Tipo de Auditoría:</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN DE RESULTADOS:</t>
+  </si>
+  <si>
+    <t>TIPO DE RESULTADO</t>
+  </si>
+  <si>
+    <t>ESTATUS DE LOS RESULTADOS</t>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>CLAVE DE RESULTADO</t>
+  </si>
+  <si>
+    <t>RESULTADO/OBSERVACIÓN</t>
+  </si>
+  <si>
+    <t>RESULTADO SUPERVIVIENTE</t>
+  </si>
+  <si>
+    <t>NUMERO RESULTADO</t>
   </si>
 </sst>
 </file>
@@ -111,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,11 +212,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -172,6 +241,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,85 +563,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="33.7265625" customWidth="1"/>
+    <col min="5" max="5" width="28.90625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.1796875" customWidth="1"/>
+    <col min="23" max="23" width="32.81640625" customWidth="1"/>
+    <col min="24" max="24" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.54296875" customWidth="1"/>
+    <col min="28" max="28" width="15" customWidth="1"/>
+    <col min="29" max="29" width="12.1796875" customWidth="1"/>
+    <col min="30" max="30" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.08984375" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="L9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="AA9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="AD10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="AE10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:F9"/>
+  <mergeCells count="5">
+    <mergeCell ref="AA9:AF9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="S9:Y9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/reportes/informe.xlsx
+++ b/public/reportes/informe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Nombre:</t>
   </si>
@@ -65,12 +65,6 @@
     <t>FECHA VENCIMIENTO</t>
   </si>
   <si>
-    <t>ADMINISTRACIÓN DE OFICIOS:</t>
-  </si>
-  <si>
-    <t>SECRETARÍA</t>
-  </si>
-  <si>
     <t>UNIDAD ADMINISTRATIVA</t>
   </si>
   <si>
@@ -86,21 +80,12 @@
     <t>FECHA VENCIMENTO</t>
   </si>
   <si>
-    <t>NOTIFICACIONES:</t>
-  </si>
-  <si>
-    <t>CONTESTACIÓN ÓRGANO:</t>
-  </si>
-  <si>
     <t>PRÓRROGA</t>
   </si>
   <si>
     <t>Tipo de Auditoría:</t>
   </si>
   <si>
-    <t>ADMINISTRACIÓN DE RESULTADOS:</t>
-  </si>
-  <si>
     <t>TIPO DE RESULTADO</t>
   </si>
   <si>
@@ -120,6 +105,21 @@
   </si>
   <si>
     <t>NUMERO RESULTADO</t>
+  </si>
+  <si>
+    <t>ORDEN DE AUDITORÍA</t>
+  </si>
+  <si>
+    <t>NOTIFICACIÓN A ÁREAS</t>
+  </si>
+  <si>
+    <t>CONTESTACIÓN ÓRGANO FISCALIZADOR</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN DE RESULTADOS</t>
+  </si>
+  <si>
+    <t>TIPO OFICIO</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -243,11 +243,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,132 +569,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="4" max="4" width="33.7265625" customWidth="1"/>
+    <col min="2" max="3" width="22.1796875" customWidth="1"/>
     <col min="5" max="5" width="28.90625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.1796875" customWidth="1"/>
-    <col min="23" max="23" width="32.81640625" customWidth="1"/>
-    <col min="24" max="24" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.54296875" customWidth="1"/>
-    <col min="28" max="28" width="15" customWidth="1"/>
-    <col min="29" max="29" width="12.1796875" customWidth="1"/>
-    <col min="30" max="30" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.08984375" customWidth="1"/>
-    <col min="32" max="32" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.36328125" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+    <col min="14" max="14" width="16.1796875" customWidth="1"/>
+    <col min="15" max="15" width="19.36328125" customWidth="1"/>
+    <col min="16" max="17" width="20.90625" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="13.90625" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.1796875" customWidth="1"/>
+    <col min="30" max="30" width="32.81640625" customWidth="1"/>
+    <col min="31" max="31" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.54296875" customWidth="1"/>
+    <col min="35" max="35" width="15" customWidth="1"/>
+    <col min="36" max="36" width="12.1796875" customWidth="1"/>
+    <col min="37" max="37" width="18.81640625" customWidth="1"/>
+    <col min="38" max="38" width="15.08984375" customWidth="1"/>
+    <col min="39" max="39" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="L9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="S9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="AA9" s="6" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="S9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Z9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AH9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
+      <c r="C10" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>7</v>
@@ -697,73 +715,92 @@
         <v>12</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="S10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="V10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="2" t="s">
+      <c r="X10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AI10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AK10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="5" t="s">
+      <c r="AL10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AM10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="AA9:AF9"/>
+  <mergeCells count="6">
+    <mergeCell ref="AH9:AM9"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="S9:X9"/>
+    <mergeCell ref="Z9:AF9"/>
     <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="S9:Y9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/reportes/informe.xlsx
+++ b/public/reportes/informe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Nombre:</t>
   </si>
@@ -119,7 +119,31 @@
     <t>ADMINISTRACIÓN DE RESULTADOS</t>
   </si>
   <si>
-    <t>TIPO OFICIO</t>
+    <t>OFICIO ORDEN</t>
+  </si>
+  <si>
+    <t>OFICIO NOTIFICACIÓN</t>
+  </si>
+  <si>
+    <t>OFICIO SOLICITUD</t>
+  </si>
+  <si>
+    <t>FECHA SOLICITUD</t>
+  </si>
+  <si>
+    <t>ENTREGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ÓRGANO ORIGEN</t>
+  </si>
+  <si>
+    <t>ÓRGANO DESTINO</t>
+  </si>
+  <si>
+    <t>RESPUESTA A CONTESTACIÓN ÓRGANO FISCALIZADOR</t>
   </si>
 </sst>
 </file>
@@ -225,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -234,14 +258,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,9 +275,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,238 +590,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="3" width="22.1796875" customWidth="1"/>
-    <col min="5" max="5" width="28.90625" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.36328125" customWidth="1"/>
-    <col min="13" max="13" width="20.1796875" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" customWidth="1"/>
-    <col min="15" max="15" width="19.36328125" customWidth="1"/>
-    <col min="16" max="17" width="20.90625" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="13.90625" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
-    <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.1796875" customWidth="1"/>
-    <col min="30" max="30" width="32.81640625" customWidth="1"/>
-    <col min="31" max="31" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.54296875" customWidth="1"/>
-    <col min="35" max="35" width="15" customWidth="1"/>
-    <col min="36" max="36" width="12.1796875" customWidth="1"/>
-    <col min="37" max="37" width="18.81640625" customWidth="1"/>
-    <col min="38" max="38" width="15.08984375" customWidth="1"/>
-    <col min="39" max="39" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="22.1796875" customWidth="1"/>
+    <col min="8" max="8" width="28.90625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.36328125" customWidth="1"/>
+    <col min="16" max="16" width="20.1796875" customWidth="1"/>
+    <col min="17" max="17" width="16.1796875" customWidth="1"/>
+    <col min="18" max="18" width="19.36328125" customWidth="1"/>
+    <col min="19" max="20" width="20.90625" customWidth="1"/>
+    <col min="22" max="22" width="22" customWidth="1"/>
+    <col min="23" max="23" width="13.90625" customWidth="1"/>
+    <col min="24" max="25" width="11.453125" customWidth="1"/>
+    <col min="26" max="26" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.54296875" customWidth="1"/>
+    <col min="31" max="31" width="19.1796875" customWidth="1"/>
+    <col min="32" max="32" width="15.90625" customWidth="1"/>
+    <col min="33" max="33" width="12.453125" customWidth="1"/>
+    <col min="34" max="36" width="19.453125" customWidth="1"/>
+    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.1796875" customWidth="1"/>
+    <col min="42" max="42" width="32.81640625" customWidth="1"/>
+    <col min="43" max="43" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27.54296875" customWidth="1"/>
+    <col min="47" max="47" width="15" customWidth="1"/>
+    <col min="48" max="48" width="12.1796875" customWidth="1"/>
+    <col min="49" max="49" width="18.81640625" customWidth="1"/>
+    <col min="50" max="50" width="15.08984375" customWidth="1"/>
+    <col min="51" max="51" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="O9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="S9" s="9" t="s">
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="V9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
-      <c r="Z9" s="8" t="s">
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AD9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AL9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AH9" s="7" t="s">
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AT9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="M10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="V10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="X10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AM10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AN10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AO10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AP10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AQ10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AR10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AT10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AU10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AV10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AW10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AL10" s="5" t="s">
+      <c r="AX10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AM10" s="5" t="s">
+      <c r="AY10" s="4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="36:36" x14ac:dyDescent="0.35">
+      <c r="AJ23" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="S9:X9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="L9:Q9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="AT9:AY9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="AL9:AR9"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="AD9:AJ9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/reportes/informe.xlsx
+++ b/public/reportes/informe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Nombre:</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>ÓRGANO ORIGEN</t>
-  </si>
-  <si>
-    <t>ÓRGANO DESTINO</t>
   </si>
   <si>
     <t>RESPUESTA A CONTESTACIÓN ÓRGANO FISCALIZADOR</t>
@@ -590,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY23"/>
+  <dimension ref="A1:AX23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -618,56 +615,55 @@
     <col min="27" max="27" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="22.54296875" customWidth="1"/>
-    <col min="31" max="31" width="19.1796875" customWidth="1"/>
-    <col min="32" max="32" width="15.90625" customWidth="1"/>
-    <col min="33" max="33" width="12.453125" customWidth="1"/>
-    <col min="34" max="36" width="19.453125" customWidth="1"/>
-    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.1796875" customWidth="1"/>
-    <col min="42" max="42" width="32.81640625" customWidth="1"/>
-    <col min="43" max="43" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="27.54296875" customWidth="1"/>
-    <col min="47" max="47" width="15" customWidth="1"/>
-    <col min="48" max="48" width="12.1796875" customWidth="1"/>
-    <col min="49" max="49" width="18.81640625" customWidth="1"/>
-    <col min="50" max="50" width="15.08984375" customWidth="1"/>
-    <col min="51" max="51" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.90625" customWidth="1"/>
+    <col min="32" max="32" width="12.453125" customWidth="1"/>
+    <col min="33" max="35" width="19.453125" customWidth="1"/>
+    <col min="37" max="37" width="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.1796875" customWidth="1"/>
+    <col min="41" max="41" width="32.81640625" customWidth="1"/>
+    <col min="42" max="42" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.54296875" customWidth="1"/>
+    <col min="46" max="46" width="15" customWidth="1"/>
+    <col min="47" max="47" width="12.1796875" customWidth="1"/>
+    <col min="48" max="48" width="18.81640625" customWidth="1"/>
+    <col min="49" max="49" width="15.08984375" customWidth="1"/>
+    <col min="50" max="50" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -702,33 +698,32 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AD9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AL9" s="8" t="s">
+      <c r="AK9" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
       <c r="AP9" s="8"/>
       <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AT9" s="7" t="s">
+      <c r="AS9" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="AT9" s="7"/>
       <c r="AU9" s="7"/>
       <c r="AV9" s="7"/>
       <c r="AW9" s="7"/>
       <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
     </row>
-    <row r="10" spans="1:51" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -808,77 +803,74 @@
         <v>37</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AI10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY10" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="23" spans="36:36" x14ac:dyDescent="0.35">
-      <c r="AJ23" t="s">
+    <row r="23" spans="35:35" x14ac:dyDescent="0.35">
+      <c r="AI23" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AT9:AY9"/>
+    <mergeCell ref="AS9:AX9"/>
     <mergeCell ref="H9:M9"/>
     <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="AL9:AR9"/>
+    <mergeCell ref="AK9:AQ9"/>
     <mergeCell ref="O9:T9"/>
-    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="AD9:AI9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/reportes/informe.xlsx
+++ b/public/reportes/informe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Nombre:</t>
   </si>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -271,6 +271,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -587,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX23"/>
+  <dimension ref="A1:BB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -608,62 +611,65 @@
     <col min="17" max="17" width="16.1796875" customWidth="1"/>
     <col min="18" max="18" width="19.36328125" customWidth="1"/>
     <col min="19" max="20" width="20.90625" customWidth="1"/>
-    <col min="22" max="22" width="22" customWidth="1"/>
-    <col min="23" max="23" width="13.90625" customWidth="1"/>
-    <col min="24" max="25" width="11.453125" customWidth="1"/>
-    <col min="26" max="26" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.54296875" customWidth="1"/>
-    <col min="31" max="31" width="15.90625" customWidth="1"/>
-    <col min="32" max="32" width="12.453125" customWidth="1"/>
-    <col min="33" max="35" width="19.453125" customWidth="1"/>
-    <col min="37" max="37" width="18" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.1796875" customWidth="1"/>
-    <col min="41" max="41" width="32.81640625" customWidth="1"/>
-    <col min="42" max="42" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.54296875" customWidth="1"/>
-    <col min="46" max="46" width="15" customWidth="1"/>
-    <col min="47" max="47" width="12.1796875" customWidth="1"/>
-    <col min="48" max="48" width="18.81640625" customWidth="1"/>
-    <col min="49" max="49" width="15.08984375" customWidth="1"/>
-    <col min="50" max="50" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1796875" customWidth="1"/>
+    <col min="23" max="23" width="14.7265625" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="26" max="26" width="22" customWidth="1"/>
+    <col min="27" max="27" width="13.90625" customWidth="1"/>
+    <col min="28" max="29" width="11.453125" customWidth="1"/>
+    <col min="30" max="30" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.54296875" customWidth="1"/>
+    <col min="35" max="35" width="15.90625" customWidth="1"/>
+    <col min="36" max="36" width="12.453125" customWidth="1"/>
+    <col min="37" max="39" width="19.453125" customWidth="1"/>
+    <col min="41" max="41" width="18" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.1796875" customWidth="1"/>
+    <col min="45" max="45" width="32.81640625" customWidth="1"/>
+    <col min="46" max="46" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.54296875" customWidth="1"/>
+    <col min="50" max="50" width="15" customWidth="1"/>
+    <col min="51" max="51" width="12.1796875" customWidth="1"/>
+    <col min="52" max="52" width="18.81640625" customWidth="1"/>
+    <col min="53" max="53" width="15.08984375" customWidth="1"/>
+    <col min="54" max="54" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -688,42 +694,47 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Z9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-      <c r="AD9" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
+      <c r="AH9" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="AI9" s="9"/>
-      <c r="AK9" s="8" t="s">
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AO9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
       <c r="AP9" s="8"/>
       <c r="AQ9" s="8"/>
-      <c r="AS9" s="7" t="s">
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AW9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
       <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
     </row>
-    <row r="10" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -779,98 +790,108 @@
         <v>18</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="X10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AM10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AO10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AP10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AM10" s="2" t="s">
+      <c r="AQ10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AR10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AO10" s="2" t="s">
+      <c r="AS10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AT10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AQ10" s="2" t="s">
+      <c r="AU10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AS10" s="2" t="s">
+      <c r="AW10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AT10" s="3" t="s">
+      <c r="AX10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AU10" s="3" t="s">
+      <c r="AY10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AV10" s="6" t="s">
+      <c r="AZ10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AW10" s="4" t="s">
+      <c r="BA10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AX10" s="4" t="s">
+      <c r="BB10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="35:35" x14ac:dyDescent="0.35">
-      <c r="AI23" t="s">
+    <row r="23" spans="39:39" x14ac:dyDescent="0.35">
+      <c r="AM23" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AS9:AX9"/>
+    <mergeCell ref="AW9:BB9"/>
     <mergeCell ref="H9:M9"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="AK9:AQ9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AO9:AU9"/>
     <mergeCell ref="O9:T9"/>
-    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="V9:X9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
